--- a/data/eval/ground_truth.xlsx
+++ b/data/eval/ground_truth.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VAIS-RAG-Patterns/data/eval/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818842B8-4EB0-A34B-8D3B-AD0FC063CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$100</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="239">
   <si>
     <t>question</t>
   </si>
@@ -118,9 +128,6 @@
     <t>amazon-q2-2021</t>
   </si>
   <si>
-    <t>What initiative did Amazon launch to support Black business owners and entrepreneurs?</t>
-  </si>
-  <si>
     <t>Amazon launched the Black Business Accelerator, committing $150 million over four years to help Black business owners and entrepreneurs succeed as third-party selling partners.</t>
   </si>
   <si>
@@ -517,15 +524,9 @@
     <t>microsoft-q4-2022</t>
   </si>
   <si>
-    <t>For the three months ended December 31, 2022, what was the impact of constant currency on the year-over-year percentage change in Search and news advertising revenue, excluding traffic acquisition costs?</t>
-  </si>
-  <si>
     <t>For the three months ended December 31, 2022, the constant currency impact on the year-over-year percentage change in Search and news advertising revenue, excluding traffic acquisition costs, was 5%.</t>
   </si>
   <si>
-    <t>How did the diluted earnings per share (EPS) for the six months ended December 31, 2022, compare to the same period in 2021?</t>
-  </si>
-  <si>
     <t>For the six months ended December 31, 2022, the diluted earnings per share (EPS) was $4.54, compared to $5.19 for the same period in 2021, indicating a decrease in EPS year-over-year.</t>
   </si>
   <si>
@@ -553,9 +554,6 @@
     <t>amazon-q1-2023</t>
   </si>
   <si>
-    <t>What was the increase in stock-based compensation from the three months ended March 31, 2022, to the three months ended March 31, 2023?</t>
-  </si>
-  <si>
     <t>Stock-based compensation increased from $3,250 million in the three months ended March 31, 2022, to $4,748 million in the three months ended March 31, 2023.</t>
   </si>
   <si>
@@ -661,9 +659,6 @@
     <t>Amazon announced an $840 million investment in the DSP program in the U.S. to support DSPs by providing higher wages and more benefits to drivers, including childcare-support services and tuition reimbursement for coursework at accredited universities.</t>
   </si>
   <si>
-    <t>What is the Next Mile education program, and what does it offer?</t>
-  </si>
-  <si>
     <t>The Next Mile education program, part of Amazon's DSP initiative, offers access to more than 2,000 academic programs and up to $5,250 in annual tuition coverage.</t>
   </si>
   <si>
@@ -725,37 +720,58 @@
   </si>
   <si>
     <t>microsoft-q4-2023</t>
+  </si>
+  <si>
+    <t>What initiative did Amazon launch to support Black business owners and entrepreneurs in Q2 of 2021?</t>
+  </si>
+  <si>
+    <t>For the three months ended December 31, 2022, what was Microsoft's impact of constant currency on the year-over-year percentage change in Search and news advertising revenue, excluding traffic acquisition costs?</t>
+  </si>
+  <si>
+    <t>How did Microsoft's diluted earnings per share (EPS) for the six months ended December 31, 2022, compare to the same period in 2021?</t>
+  </si>
+  <si>
+    <t>What was the increase in stock-based compensation from the three months ended March 31, 2022, to the three months ended March 31, 2023 for Amazon?</t>
+  </si>
+  <si>
+    <t>What is Amazon's Next Mile education program, and what does it offer?</t>
+  </si>
+  <si>
+    <t>What were Amazon's worldwide net sales in Q4 2023, and how did they compare to the previous year in terms of percentage growth?</t>
+  </si>
+  <si>
+    <t>In Q4 2023, Amazon's worldwide net sales were $169,961 million, reflecting a year-over-year growth of 14%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Google Sans"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Google Sans"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Google Sans"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;docs-Google Sans&quot;"/>
     </font>
@@ -765,7 +781,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,73 +797,58 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1037,1126 +1038,1141 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="86.63"/>
-    <col customWidth="1" min="2" max="2" width="79.63"/>
-    <col customWidth="1" min="3" max="3" width="34.38"/>
+    <col min="1" max="1" width="117.1640625" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="27" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="8" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="8" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="B45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="B47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="B49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="8" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="B51" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="B53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="6" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="B55" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="8" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="10" t="s">
+      <c r="B57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="10" t="s">
+      <c r="B59" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="6" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13">
+      <c r="A61" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="B61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13">
+      <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="8" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="13">
+      <c r="A63" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
+      <c r="B63" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13">
+      <c r="A64" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13">
+      <c r="A65" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="s">
+      <c r="B65" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="6" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="13">
+      <c r="A66" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13">
+      <c r="A67" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="s">
+      <c r="B67" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13">
+      <c r="A68" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="8" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="13">
+      <c r="A69" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="10" t="s">
+      <c r="B69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13">
+      <c r="A70" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13">
+      <c r="A71" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="10" t="s">
+      <c r="B71" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="6" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="13">
+      <c r="A72" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="C72" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13">
+      <c r="A73" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C73" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13">
+      <c r="A74" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="13">
+      <c r="A75" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13">
+      <c r="A76" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="13">
+      <c r="A77" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C77" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13">
+      <c r="A78" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="10" t="s">
+      <c r="C78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="5" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="13">
+      <c r="A79" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="B79" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C79" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13">
+      <c r="A80" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="s">
+      <c r="C80" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="5" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="13">
+      <c r="A81" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="B81" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C81" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13">
+      <c r="A82" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="s">
+      <c r="C82" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="5" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="13">
+      <c r="A83" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="B83" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C83" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13">
+      <c r="A84" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="s">
+      <c r="C84" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="5" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="13">
+      <c r="A85" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="B85" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C85" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13">
+      <c r="A86" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="10" t="s">
+      <c r="C86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="5" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="13">
+      <c r="A87" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="B87" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C87" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13">
+      <c r="A88" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="10" t="s">
+      <c r="C88" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13">
+      <c r="A89" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="C89" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="7" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="13">
+      <c r="A90" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C90" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13">
+      <c r="A91" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="C91" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13">
+      <c r="A92" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C92" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13">
+      <c r="A93" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="10" t="s">
+      <c r="B93" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C93" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="13">
+      <c r="A94" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="10" t="s">
+      <c r="C94" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13">
+      <c r="A95" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C95" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="9" t="s">
+    <row r="96" spans="1:3" ht="13">
+      <c r="A96" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C96" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="10" t="s">
+    <row r="97" spans="1:3" ht="13">
+      <c r="A97" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C97" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="9" t="s">
+    <row r="98" spans="1:3" ht="13">
+      <c r="A98" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C98" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="10" t="s">
+    <row r="99" spans="1:3" ht="13">
+      <c r="A99" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13">
+      <c r="A100" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C100" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>236</v>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A101" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$100"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/eval/ground_truth.xlsx
+++ b/data/eval/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VAIS-RAG-Patterns/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818842B8-4EB0-A34B-8D3B-AD0FC063CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA75BE-C8CA-FC40-BAE2-21648A48E482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>Alphabet's total assets were $357,096 million in Q1 2022, slightly lower than $359,268 million in Q1 2021. This slight decrease in total assets indicates a minor fluctuation in Alphabet's overall asset base year over year.</t>
   </si>
   <si>
-    <t>What was the net payment related to stock-based award activities in Q1 2022, and how does it compare to Q1 2021?</t>
-  </si>
-  <si>
     <t>The net payments related to stock-based award activities were $2,916 million in Q1 2022, compared to $2,184 million in Q1 2021. This increase in net payments indicates that Alphabet incurred higher expenses related to stock-based compensation activities in Q1 2022 compared to the same period in the previous year.</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>In Q4 2023, Amazon's worldwide net sales were $169,961 million, reflecting a year-over-year growth of 14%.</t>
+  </si>
+  <si>
+    <t>What was the net payment related to stock-based award activities in Q1 2022 for Alphabet, and how does it compare to Q1 2021?</t>
   </si>
 </sst>
 </file>
@@ -822,14 +822,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>34</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>88</v>
@@ -1503,673 +1503,673 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13">
       <c r="A61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13">
       <c r="A62" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13">
       <c r="A63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13">
       <c r="A64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13">
       <c r="A65" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13">
       <c r="A66" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13">
       <c r="A67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13">
       <c r="A68" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13">
       <c r="A69" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13">
       <c r="A70" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13">
       <c r="A71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13">
       <c r="A72" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13">
       <c r="A73" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13">
       <c r="A74" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13">
       <c r="A75" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13">
       <c r="A76" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13">
       <c r="A77" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13">
       <c r="A78" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13">
       <c r="A79" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13">
       <c r="A80" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13">
       <c r="A81" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13">
       <c r="A82" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13">
       <c r="A83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13">
       <c r="A84" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13">
       <c r="A85" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13">
       <c r="A86" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13">
       <c r="A87" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13">
       <c r="A88" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13">
       <c r="A89" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13">
       <c r="A90" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13">
       <c r="A91" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13">
       <c r="A92" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
       <c r="A93" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
       <c r="A94" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
       <c r="A95" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
       <c r="A96" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
       <c r="A97" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13">
       <c r="A98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13">
       <c r="A99" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13">
       <c r="A100" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/ground_truth.xlsx
+++ b/data/eval/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VAIS-RAG-Patterns/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA75BE-C8CA-FC40-BAE2-21648A48E482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26560FBC-908A-C54F-8CC5-9E8096533923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>amazon-q3-2021</t>
   </si>
   <si>
-    <t>Can you describe the scale and significance of Amazon’s Great Indian Festival sales event that started on October 3?</t>
-  </si>
-  <si>
     <t>Amazon's Great Indian Festival, starting on October 3, was a significant sales event that featured more than 75,000 small businesses from 450 cities across India. This event provided Amazon customers with access to a unique selection of products, showcasing the event's extensive reach and its support for small businesses in India.</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>Amazon introduced a new option for Prime members to add health care from One Medical to their membership for $9 per month, or $99 annually, and include up to five additional family members for $6 per month each.</t>
   </si>
   <si>
-    <t>What does Amazon's U.S. Community Impact Report reveal about its contributions from 2020 to 2023?</t>
-  </si>
-  <si>
     <t>According to the report, from 2020 to 2023, Amazon delivered over 33 million meals to underserved families, donated more than 88 million pounds of food, and provided STEM education, literacy, and career exploration courses to 6,000 schools and 560,000 students during the 2022-2023 academic year.</t>
   </si>
   <si>
@@ -741,6 +735,12 @@
   </si>
   <si>
     <t>What was the net payment related to stock-based award activities in Q1 2022 for Alphabet, and how does it compare to Q1 2021?</t>
+  </si>
+  <si>
+    <t>Can you describe the scale and significance of Amazon’s Great Indian Festival sales event that started on October 3, 2021?</t>
+  </si>
+  <si>
+    <t>What does the U.S. Community Impact Report reveal about Amazon's contributions from 2020 to the end of Q4 2023?</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>34</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>53</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
@@ -1338,838 +1338,838 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13">
       <c r="A61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13">
       <c r="A62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13">
       <c r="A63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13">
       <c r="A64" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13">
       <c r="A65" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13">
       <c r="A66" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13">
       <c r="A67" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13">
       <c r="A68" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13">
       <c r="A69" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13">
       <c r="A70" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13">
       <c r="A71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13">
       <c r="A72" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13">
       <c r="A73" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13">
       <c r="A74" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13">
       <c r="A75" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13">
       <c r="A76" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13">
       <c r="A77" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13">
       <c r="A78" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13">
       <c r="A79" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13">
       <c r="A80" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13">
       <c r="A81" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13">
       <c r="A82" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13">
       <c r="A83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13">
       <c r="A84" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13">
       <c r="A85" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13">
       <c r="A86" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13">
       <c r="A87" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13">
       <c r="A88" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13">
       <c r="A89" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13">
       <c r="A90" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13">
       <c r="A91" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13">
       <c r="A92" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
       <c r="A93" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
       <c r="A94" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
       <c r="A95" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
       <c r="A96" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
       <c r="A97" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13">
       <c r="A98" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13">
       <c r="A99" s="10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13">
       <c r="A100" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/ground_truth.xlsx
+++ b/data/eval/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VAIS-RAG-Patterns/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26560FBC-908A-C54F-8CC5-9E8096533923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD156-44D7-5041-B2D9-6831111C9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,24 +83,15 @@
     <t>As of Q1 2021, Amazon's subscription services increased to 7.58 billion, a 34% rise compared to Q4 2020, which was 7.061 billion.</t>
   </si>
   <si>
-    <t>What was LinkedIn's revenue increase in Q3 2021 according to Microsoft's earnings report, and what was the growth rate when adjusted for constant currency?</t>
-  </si>
-  <si>
     <t>In the third quarter of 2021, LinkedIn's revenue increased by 25% year-over-year. When adjusted for constant currency, the growth rate was 23%.</t>
   </si>
   <si>
     <t>microsoft-q1-2021</t>
   </si>
   <si>
-    <t>What was Microsoft's diluted earnings per share according to the Q3 2021 reports, both as reported GAAP and adjusted non-GAAP?</t>
-  </si>
-  <si>
     <t>In the third quarter of 2021, Microsoft's diluted earnings per share were reported as $2.03 according to GAAP, and $1.95 when adjusted according to non-GAAP.</t>
   </si>
   <si>
-    <t>What was the amount that Microsoft returned to shareholders through share repurchases and dividends in the third quarter of fiscal year 2021? How does this compare, in percentage terms, to the same quarter of the previous fiscal year?</t>
-  </si>
-  <si>
     <t>In the third quarter of fiscal year 2021, Microsoft returned $10.0 billion to shareholders through share repurchases and dividends. This marked a 1% increase compared to the third quarter of fiscal year 2020.</t>
   </si>
   <si>
@@ -137,24 +128,15 @@
     <t>Amazon's marketing operating expenses increased from $4,345 million in Q2 2020 to $7,524 million in Q2 2021.</t>
   </si>
   <si>
-    <t>What was the revenue increase for Microsoft Office Consumer products and cloud services in Q4 2021?</t>
-  </si>
-  <si>
     <t>In Q4 2021, Microsoft Office Consumer products and cloud services revenue increased by 18% (up 15% in constant currency).</t>
   </si>
   <si>
     <t>microsoft-q2-2021</t>
   </si>
   <si>
-    <t>How many Microsoft 365 Consumer subscribers were there as of Q4 2021?</t>
-  </si>
-  <si>
     <t>As of Q4 2021, Microsoft 365 Consumer subscribers increased to 51.9 million.</t>
   </si>
   <si>
-    <t>What was the year-over-year percentage change for LinkedIn in Q4 2021, both in GAAP and in constant currency?</t>
-  </si>
-  <si>
     <t>In Q4 2021, LinkedIn's percentage change year-over-year (Y/Y) was 46% as per GAAP, and 42% in constant currency, considering a 4% impact from currency fluctuations.</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
     <t>Amazon's online stores net sales amounted to $49,942 million in Q3 2021, a decrease from $53,157 million in Q3 2020. This indicates a slight downturn in online store sales compared to the previous year.</t>
   </si>
   <si>
-    <t>How much revenue did Microsoft Cloud generate in the first quarter of fiscal year 2022, and what was the year-over-year growth rate?</t>
-  </si>
-  <si>
     <t>Microsoft Cloud generated $20.7 billion in revenue for the quarter, marking a 36% increase compared to the same period in the previous year. This demonstrates strong growth and performance in Microsoft's cloud segment.</t>
   </si>
   <si>
@@ -212,9 +191,6 @@
     <t>The segment revenue for Microsoft was reported as $16,964 million in Q3 2021 (first quarter of fiscal year 2022), compared to $12,986 million in Q3 2020 (first quarter of fiscal year 2021), as reported on a GAAP basis. This indicates a significant increase in revenue, showcasing Microsoft's strong financial performance across its segments.</t>
   </si>
   <si>
-    <t>How much did Microsoft return to shareholders in the form of share repurchases and dividends in the first quarter of fiscal year 2022, and how does this compare to the same quarter in the previous fiscal year?</t>
-  </si>
-  <si>
     <t>Microsoft returned $10.9 billion to shareholders through share repurchases and dividends in the first quarter of fiscal year 2022, marking a 14% increase from the first quarter of fiscal year 2021. This reflects Microsoft's commitment to delivering value to its shareholders and its strong financial health.</t>
   </si>
   <si>
@@ -260,9 +236,6 @@
     <t>Amazon's stock-based compensation in Q4 2021 was $3,680 million, which represents an increase from $2,562 million in Q4 2020. This indicates a significant rise in the amount of stock-based compensation Amazon provided, reflecting possibly increased compensation to employees through stock options or rewards.</t>
   </si>
   <si>
-    <t>How much did Microsoft return to its shareholders in the form of share repurchases and dividends in the second quarter of fiscal year 2022, and how does this compare to the previous year?</t>
-  </si>
-  <si>
     <t>Microsoft returned $10.9 billion to shareholders through share repurchases and dividends in the second quarter of fiscal year 2022, which is a 9% increase compared to the $10 billion (approximation based on the provided increase percentage) returned in the second quarter of fiscal year 2021. This increase demonstrates Microsoft's ongoing commitment to returning value to its shareholders.</t>
   </si>
   <si>
@@ -596,21 +569,12 @@
     <t>Amazon's cash and cash equivalents decreased by $4,359 million, from $53,888 million as of December 31, 2022, to $49,529 million as of June 30, 2023.</t>
   </si>
   <si>
-    <t>What was the percentage increase in Office 365 Commercial revenue in constant currency in Q2 2023?</t>
-  </si>
-  <si>
     <t>Office 365 Commercial revenue grew by 17% in constant currency in Q2 2023.</t>
   </si>
   <si>
     <t>microsoft-q2-2023</t>
   </si>
   <si>
-    <t>What was the total revenue reported by Microsoft for the twelve months ended June 30, 2022?</t>
-  </si>
-  <si>
-    <t>Microsoft reported a total revenue of $198,270 million for the twelve months ended June 30, 2022.</t>
-  </si>
-  <si>
     <t>How much did Alphabet record in employee severance and related charges for the three months ended September 30, 2023?</t>
   </si>
   <si>
@@ -737,10 +701,46 @@
     <t>What was the net payment related to stock-based award activities in Q1 2022 for Alphabet, and how does it compare to Q1 2021?</t>
   </si>
   <si>
-    <t>Can you describe the scale and significance of Amazon’s Great Indian Festival sales event that started on October 3, 2021?</t>
-  </si>
-  <si>
     <t>What does the U.S. Community Impact Report reveal about Amazon's contributions from 2020 to the end of Q4 2023?</t>
+  </si>
+  <si>
+    <t>Could you describe the scale and significance of Amazon's Great Indian Festival sales event in Q3 2021?</t>
+  </si>
+  <si>
+    <t>What was LinkedIn's revenue increase in Q1 2021 according to Microsoft's earnings report, and what was the growth rate when adjusted for constant currency?</t>
+  </si>
+  <si>
+    <t>What was Microsoft's diluted earnings per share according to the Q1 2021 reports, both as reported GAAP and adjusted non-GAAP?</t>
+  </si>
+  <si>
+    <t>What was the amount that Microsoft returned to shareholders through share repurchases and dividends in the (Q1 2021) third quarter of fiscal year 2021? How does this compare, in percentage terms, to the same quarter of the previous fiscal year?</t>
+  </si>
+  <si>
+    <t>What was the revenue increase for Microsoft Office Consumer products and cloud services in Q2 2021?</t>
+  </si>
+  <si>
+    <t>How many Microsoft 365 Consumer subscribers were there as of Q2 2021?</t>
+  </si>
+  <si>
+    <t>What was the year-over-year percentage change for LinkedIn in Q2 2021, both in GAAP and in constant currency?</t>
+  </si>
+  <si>
+    <t>How much revenue did Microsoft Cloud generate in the Q3 2021 ( first quarter of fiscal year 2022), and what was the year-over-year growth rate?</t>
+  </si>
+  <si>
+    <t>How much did Microsoft return to shareholders in the form of share repurchases and dividends in the Q3 2021 (first quarter of fiscal year 2022), and how does this compare to the same quarter in the previous fiscal year?</t>
+  </si>
+  <si>
+    <t>How much did Microsoft return to its shareholders in the form of share repurchases and dividends in Q4 2021 (second quarter of fiscal year 2022), and how does this compare to the previous year?</t>
+  </si>
+  <si>
+    <t>What was the percentage increase in Microsoft Office 365 Commercial revenue in constant currency in Q2 2023?</t>
+  </si>
+  <si>
+    <t>What was the diluted earnings per share (EPS) for Microsoft in Q2 2023, and how much did it increase from the previous year?</t>
+  </si>
+  <si>
+    <t>The diluted earnings per share (EPS) for Microsoft in Q2 2023 was $2.69, which marked a 21% increase from the previous year, or a 23% increase when adjusted for constant currency.</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1151,1025 +1151,1025 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13">
       <c r="A61" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13">
       <c r="A62" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13">
       <c r="A63" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13">
       <c r="A64" s="9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13">
       <c r="A65" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13">
       <c r="A66" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13">
       <c r="A67" s="10" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13">
       <c r="A68" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13">
       <c r="A69" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13">
       <c r="A70" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13">
       <c r="A71" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13">
       <c r="A72" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13">
       <c r="A73" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13">
       <c r="A74" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13">
       <c r="A75" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13">
       <c r="A76" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13">
       <c r="A77" s="10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13">
       <c r="A78" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13">
       <c r="A79" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13">
       <c r="A80" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13">
       <c r="A81" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13">
       <c r="A82" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13">
       <c r="A83" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13">
       <c r="A84" s="9" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13">
-      <c r="A85" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>192</v>
+      <c r="A85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13">
       <c r="A86" s="9" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13">
       <c r="A87" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13">
       <c r="A88" s="9" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13">
       <c r="A89" s="10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13">
       <c r="A90" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13">
       <c r="A91" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13">
       <c r="A92" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
       <c r="A93" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
       <c r="A94" s="9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
       <c r="A95" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
       <c r="A96" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
       <c r="A97" s="10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13">
       <c r="A98" s="9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13">
       <c r="A99" s="10" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13">
       <c r="A100" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/ground_truth.xlsx
+++ b/data/eval/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VAIS-RAG-Patterns/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD156-44D7-5041-B2D9-6831111C9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B241CB-031B-2249-9AE6-0DE9431B9A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,9 +533,6 @@
     <t>microsoft-q1-2023</t>
   </si>
   <si>
-    <t>What was the year-over-year percentage change in revenue from Xbox content and services for the three months ended March 31, 2023, both in GAAP and constant currency terms?</t>
-  </si>
-  <si>
     <t>The year-over-year GAAP percentage change in revenue from Xbox content and services for the three months ended March 31, 2023, was 3%. After adjusting for currency impact, the percentage change on a constant currency basis was 5%.</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>The diluted earnings per share (EPS) for Microsoft in Q2 2023 was $2.69, which marked a 21% increase from the previous year, or a 23% increase when adjusted for constant currency.</t>
+  </si>
+  <si>
+    <t>What was the year-over-year percentage change in revenue from Microsoft's Xbox content and services for the three months ended March 31, 2023, both in GAAP and constant currency terms?</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>21</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>31</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>34</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>36</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>48</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>51</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>55</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>70</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>81</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="72" spans="1:3" ht="13">
       <c r="A72" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>155</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="73" spans="1:3" ht="13">
       <c r="A73" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>156</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="77" spans="1:3" ht="13">
       <c r="A77" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>165</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="79" spans="1:3" ht="13">
       <c r="A79" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>168</v>
@@ -1932,244 +1932,244 @@
     </row>
     <row r="80" spans="1:3" ht="13">
       <c r="A80" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13">
       <c r="A81" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13">
       <c r="A82" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13">
       <c r="A83" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13">
       <c r="A84" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13">
       <c r="A85" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13">
       <c r="A86" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13">
       <c r="A87" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13">
       <c r="A88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13">
       <c r="A89" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13">
       <c r="A90" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13">
       <c r="A91" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13">
       <c r="A92" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
       <c r="A93" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
       <c r="A94" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
       <c r="A95" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
       <c r="A96" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
       <c r="A97" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13">
       <c r="A98" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13">
       <c r="A99" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13">
       <c r="A100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
